--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_13.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_13.xlsx
@@ -512,144 +512,144 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9991455731345846</v>
+        <v>0.9495262967628391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8275163831916599</v>
+        <v>0.7459627119270794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8149004132814701</v>
+        <v>0.7617700344776059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9959829574321809</v>
+        <v>0.9198860100652572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003556574637782568</v>
+        <v>0.1769361008038288</v>
       </c>
       <c r="G2" t="n">
-        <v>1.153398739811397</v>
+        <v>1.698748515077774</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6620904890014818</v>
+        <v>0.8521347733065359</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01567412331848205</v>
+        <v>0.2209222905579837</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1632643889072732</v>
+        <v>1.406747286535586</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05963702405203137</v>
+        <v>0.4206377310748869</v>
       </c>
       <c r="L2" t="n">
-        <v>1.054683319386584</v>
+        <v>0.9312698509111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0605762475656981</v>
+        <v>0.42726235485585</v>
       </c>
       <c r="N2" t="n">
-        <v>141.2779147554181</v>
+        <v>37.46393324799345</v>
       </c>
       <c r="O2" t="n">
-        <v>282.6130872986345</v>
+        <v>74.42851683621926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_8</t>
+          <t>model_1_13_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9990603203846269</v>
+        <v>0.9496441360490432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8273704783614437</v>
+        <v>0.7453810405768428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8139163288990312</v>
+        <v>0.7617839493779803</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9955397053343282</v>
+        <v>0.9219592033333377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003911441485460006</v>
+        <v>0.1765230139390811</v>
       </c>
       <c r="G3" t="n">
-        <v>1.154374406082883</v>
+        <v>1.702638154075156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6656105017769746</v>
+        <v>0.8520850005147294</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01740365142918097</v>
+        <v>0.215205254046298</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1688518699140326</v>
+        <v>1.400662062967501</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06254151809366323</v>
+        <v>0.4201464196432966</v>
       </c>
       <c r="L3" t="n">
-        <v>1.060139495383879</v>
+        <v>0.9314303129178461</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06352648448505682</v>
+        <v>0.4267633057603434</v>
       </c>
       <c r="N3" t="n">
-        <v>141.0876986131351</v>
+        <v>37.46860804103841</v>
       </c>
       <c r="O3" t="n">
-        <v>282.4228711563515</v>
+        <v>74.43319162926423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_7</t>
+          <t>model_1_13_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9992214102397079</v>
+        <v>0.9496198515074029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8272112562324336</v>
+        <v>0.7453258543002923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.814242699809365</v>
+        <v>0.7618718592649759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9965157719093232</v>
+        <v>0.9217848762797473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003240900663096654</v>
+        <v>0.1766081436567767</v>
       </c>
       <c r="G4" t="n">
-        <v>1.155439125192724</v>
+        <v>1.70300718496056</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6644430919547833</v>
+        <v>0.851770551946254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0135951312043568</v>
+        <v>0.2156859782246445</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1636213226269939</v>
+        <v>1.401191990310757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05692890885215221</v>
+        <v>0.420247717015544</v>
       </c>
       <c r="L4" t="n">
-        <v>1.049829744658695</v>
+        <v>0.9313972446058253</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05782548225854287</v>
+        <v>0.4268661984649434</v>
       </c>
       <c r="N4" t="n">
-        <v>141.4638080107412</v>
+        <v>37.46764375660739</v>
       </c>
       <c r="O4" t="n">
-        <v>282.7989805539576</v>
+        <v>74.43222734483321</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995269233111567</v>
+        <v>0.9497752423128503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8266025917777211</v>
+        <v>0.7446740841807067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8164047049719769</v>
+        <v>0.7617035373674009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986768059276422</v>
+        <v>0.9244893441088416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001969194346959569</v>
+        <v>0.1760634195439563</v>
       </c>
       <c r="G5" t="n">
-        <v>1.159509267204029</v>
+        <v>1.707365574751353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6567097248483825</v>
+        <v>0.8523726296140154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005162979160482251</v>
+        <v>0.208228139362411</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1428385194512282</v>
+        <v>1.393067192207496</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04437560531372579</v>
+        <v>0.4195991176634626</v>
       </c>
       <c r="L5" t="n">
-        <v>1.030276908085973</v>
+        <v>0.9316088405962216</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04507447673808598</v>
+        <v>0.4262073843214282</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4602615616276</v>
+        <v>37.47382202106462</v>
       </c>
       <c r="O5" t="n">
-        <v>283.795434104844</v>
+        <v>74.43840560929044</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995342731722748</v>
+        <v>0.9498374833129729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8265339395853523</v>
+        <v>0.7440647807534029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8165269315322523</v>
+        <v>0.7616355685102096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987620987443021</v>
+        <v>0.9262884199077613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001938600353837131</v>
+        <v>0.1758452330594003</v>
       </c>
       <c r="G6" t="n">
-        <v>1.159968344730514</v>
+        <v>1.711439989575319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6562725275293805</v>
+        <v>0.8526157502751277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004830174589971128</v>
+        <v>0.2032670090191522</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1414669849111907</v>
+        <v>1.387372171294204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04402953955967664</v>
+        <v>0.419339043089718</v>
       </c>
       <c r="L6" t="n">
-        <v>1.029806516974411</v>
+        <v>0.9316935942985163</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04472296079434939</v>
+        <v>0.4259432138331263</v>
       </c>
       <c r="N6" t="n">
-        <v>142.4915780667676</v>
+        <v>37.4763020568455</v>
       </c>
       <c r="O6" t="n">
-        <v>283.826750609984</v>
+        <v>74.44088564507132</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995898938519561</v>
+        <v>0.9498424559188502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8263181740642276</v>
+        <v>0.7439504240979541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8177324885496119</v>
+        <v>0.7616301501006115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991476127014912</v>
+        <v>0.9265711516463746</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001707077789768301</v>
+        <v>0.175827801536878</v>
       </c>
       <c r="G7" t="n">
-        <v>1.161411169763783</v>
+        <v>1.712204693056869</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6519603199804977</v>
+        <v>0.852635131612083</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003325935288554155</v>
+        <v>0.2024873481464537</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1270904637197036</v>
+        <v>1.386490874916203</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04131679791281388</v>
+        <v>0.4193182580533288</v>
       </c>
       <c r="L7" t="n">
-        <v>1.026246793474812</v>
+        <v>0.9317003655065195</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04196749617829531</v>
+        <v>0.4259221014531915</v>
       </c>
       <c r="N7" t="n">
-        <v>142.7459445303328</v>
+        <v>37.47650032649738</v>
       </c>
       <c r="O7" t="n">
-        <v>284.0811170735492</v>
+        <v>74.44108391472319</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996043346269238</v>
+        <v>0.9498094634755764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8262973513221008</v>
+        <v>0.7426816894563821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8194356108258686</v>
+        <v>0.7618364665467539</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993084229568361</v>
+        <v>0.9287879190899752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00164696767844186</v>
+        <v>0.1759434568958962</v>
       </c>
       <c r="G8" t="n">
-        <v>1.161550411536264</v>
+        <v>1.720688727447047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6458683503510311</v>
+        <v>0.8518971496471466</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002698468755502043</v>
+        <v>0.1963743915745302</v>
       </c>
       <c r="J8" t="n">
-        <v>0.115536068151348</v>
+        <v>1.379221208979397</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04058284956039756</v>
+        <v>0.4194561441866077</v>
       </c>
       <c r="L8" t="n">
-        <v>1.025322583876878</v>
+        <v>0.9316554396263168</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04122198887300762</v>
+        <v>0.426062159155234</v>
       </c>
       <c r="N8" t="n">
-        <v>142.8176389049665</v>
+        <v>37.47518520639688</v>
       </c>
       <c r="O8" t="n">
-        <v>284.1528114481828</v>
+        <v>74.43976879462271</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995716406291381</v>
+        <v>0.9499364705085473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.826042005861083</v>
+        <v>0.7403010795485198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8199026658251303</v>
+        <v>0.7596436277349236</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993027548176983</v>
+        <v>0.9367969888784639</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001783057317051437</v>
+        <v>0.1754982323978448</v>
       </c>
       <c r="G9" t="n">
-        <v>1.163257907809848</v>
+        <v>1.736607876862623</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6441977217000766</v>
+        <v>0.8597408069289638</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002720585302771209</v>
+        <v>0.174288585533002</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1183535457994527</v>
+        <v>1.355626670191014</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04222626335648748</v>
+        <v>0.418925091630765</v>
       </c>
       <c r="L9" t="n">
-        <v>1.027414999735164</v>
+        <v>0.9318283853733411</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04289128479357486</v>
+        <v>0.4255227430524945</v>
       </c>
       <c r="N9" t="n">
-        <v>142.6588515884129</v>
+        <v>37.48025261586818</v>
       </c>
       <c r="O9" t="n">
-        <v>283.9940241316293</v>
+        <v>74.444836204094</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995384888850301</v>
+        <v>0.949922212850461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825747353120218</v>
+        <v>0.7401122222884426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8195498032655143</v>
+        <v>0.7595141978339254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992578225516777</v>
+        <v>0.9372128277039998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001921052336947477</v>
+        <v>0.1755482127691393</v>
       </c>
       <c r="G10" t="n">
-        <v>1.165228252044764</v>
+        <v>1.737870766230366</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6454598906156763</v>
+        <v>0.8602037701800576</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002895906790331806</v>
+        <v>0.173141868637299</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1272095662749562</v>
+        <v>1.354892491229779</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04382981105306612</v>
+        <v>0.4189847404967624</v>
       </c>
       <c r="L10" t="n">
-        <v>1.029536711358077</v>
+        <v>0.9318089706899894</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04452008676341501</v>
+        <v>0.4255833313285044</v>
       </c>
       <c r="N10" t="n">
-        <v>142.5097643018599</v>
+        <v>37.4796831143413</v>
       </c>
       <c r="O10" t="n">
-        <v>283.8449368450763</v>
+        <v>74.44426670256712</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995237796788935</v>
+        <v>0.9499222647795538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8256545393697849</v>
+        <v>0.7400053172497725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8194884450814395</v>
+        <v>0.7593212917184785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992352139891524</v>
+        <v>0.9376140299036351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00198227980018004</v>
+        <v>0.1755480307311553</v>
       </c>
       <c r="G11" t="n">
-        <v>1.165848898021277</v>
+        <v>1.738585640716206</v>
       </c>
       <c r="H11" t="n">
-        <v>0.64567936528236</v>
+        <v>0.8608937841696718</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00298412328072058</v>
+        <v>0.1720355136923948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1314952250626792</v>
+        <v>1.354170994841082</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0445228009022348</v>
+        <v>0.4189845232596967</v>
       </c>
       <c r="L11" t="n">
-        <v>1.030478100550816</v>
+        <v>0.9318090414019455</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04522399050997239</v>
+        <v>0.425583110670172</v>
       </c>
       <c r="N11" t="n">
-        <v>142.4470153648246</v>
+        <v>37.47968518827957</v>
       </c>
       <c r="O11" t="n">
-        <v>283.7821879080411</v>
+        <v>74.4442687765054</v>
       </c>
     </row>
   </sheetData>
